--- a/assignment72/HeatForOMP/task_4_output/Task4.xlsx
+++ b/assignment72/HeatForOMP/task_4_output/Task4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\Task_4_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\task_4_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABA4CF-1B22-4819-A5E6-C56AB0370F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED53C833-2E66-4F06-9A64-4BB5D101002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8A7D55B9-0EE1-49B5-95D0-033DB3A3E25E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="56">
   <si>
     <t>Only MPI 48 processes</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>Residual: 5.863330</t>
+  </si>
+  <si>
+    <t>1 MPI 48 OMP</t>
+  </si>
+  <si>
+    <t>2 MPI 24 OMP</t>
+  </si>
+  <si>
+    <t>3 MPI 16 OMP</t>
+  </si>
+  <si>
+    <t>4 MPI 12 OMP</t>
+  </si>
+  <si>
+    <t>6 MPI OMP 8</t>
+  </si>
+  <si>
+    <t>8 MPI OMP 6</t>
+  </si>
+  <si>
+    <t>12 MPI OMP 4</t>
   </si>
 </sst>
 </file>
@@ -473,25 +494,25 @@
                     <c:v>Only OMP 48 threads</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1 MPI: 48OMP</c:v>
+                    <c:v>1 MPI 48 OMP</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2 MPI:24 OMP</c:v>
+                    <c:v>2 MPI 24 OMP</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3 MPI:16 OMP</c:v>
+                    <c:v>3 MPI 16 OMP</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>4 MPI:12 OMP</c:v>
+                    <c:v>4 MPI 12 OMP</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>MPI 6: OMP 8</c:v>
+                    <c:v>6 MPI OMP 8</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>MPI 8: OMP 6</c:v>
+                    <c:v>8 MPI OMP 6</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>MPI 12: OMP 4</c:v>
+                    <c:v>12 MPI OMP 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -713,25 +734,25 @@
                     <c:v>Only OMP 48 threads</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1 MPI: 48OMP</c:v>
+                    <c:v>1 MPI 48 OMP</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2 MPI:24 OMP</c:v>
+                    <c:v>2 MPI 24 OMP</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3 MPI:16 OMP</c:v>
+                    <c:v>3 MPI 16 OMP</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>4 MPI:12 OMP</c:v>
+                    <c:v>4 MPI 12 OMP</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>MPI 6: OMP 8</c:v>
+                    <c:v>6 MPI OMP 8</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>MPI 8: OMP 6</c:v>
+                    <c:v>8 MPI OMP 6</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>MPI 12: OMP 4</c:v>
+                    <c:v>12 MPI OMP 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -953,25 +974,25 @@
                     <c:v>Only OMP 48 threads</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1 MPI: 48OMP</c:v>
+                    <c:v>1 MPI 48 OMP</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2 MPI:24 OMP</c:v>
+                    <c:v>2 MPI 24 OMP</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3 MPI:16 OMP</c:v>
+                    <c:v>3 MPI 16 OMP</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>4 MPI:12 OMP</c:v>
+                    <c:v>4 MPI 12 OMP</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>MPI 6: OMP 8</c:v>
+                    <c:v>6 MPI OMP 8</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>MPI 8: OMP 6</c:v>
+                    <c:v>8 MPI OMP 6</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>MPI 12: OMP 4</c:v>
+                    <c:v>12 MPI OMP 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1193,25 +1214,25 @@
                     <c:v>Only OMP 48 threads</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1 MPI: 48OMP</c:v>
+                    <c:v>1 MPI 48 OMP</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2 MPI:24 OMP</c:v>
+                    <c:v>2 MPI 24 OMP</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3 MPI:16 OMP</c:v>
+                    <c:v>3 MPI 16 OMP</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>4 MPI:12 OMP</c:v>
+                    <c:v>4 MPI 12 OMP</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>MPI 6: OMP 8</c:v>
+                    <c:v>6 MPI OMP 8</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>MPI 8: OMP 6</c:v>
+                    <c:v>8 MPI OMP 6</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>MPI 12: OMP 4</c:v>
+                    <c:v>12 MPI OMP 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2174,15 +2195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2510,7 +2531,7 @@
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD44" sqref="AD44"/>
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,37 +3782,37 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
